--- a/Testcases_supplier/Invoices/Manual testcases/Invoices -InvoiceListing.xlsx
+++ b/Testcases_supplier/Invoices/Manual testcases/Invoices -InvoiceListing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE76E6B4-5F9D-4334-9A35-76271DC3E3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC1EB44-B85B-4853-AEFC-8A762A747504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="118">
   <si>
     <t>SL. No</t>
   </si>
@@ -166,12 +166,6 @@
     <t xml:space="preserve">1.Once click on the particular invoices then it shows the "Invoice id, Details, Notes banner, Description, Qty, Discount, Amount($)"                                                                                               2.Left side Details are invoice total, Invoice date, Bill to, outlet, Linked to, and sales person                                                                                             3.On the top right corner options   </t>
   </si>
   <si>
-    <t>It gets displayed  Add credit note, Download DO, Download invoice, Duplicate and Void</t>
-  </si>
-  <si>
-    <t>it will shows "Add credit note, Download DO, Download invoice, Duplicate and Void"</t>
-  </si>
-  <si>
     <r>
       <t>Click the invoice-&gt;</t>
     </r>
@@ -1186,6 +1180,51 @@
   </si>
   <si>
     <t>It gets displayed the Invoices menu page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the single invoice If the invoice is an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"e-invoice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (including PEPPOL invoices) AND it is issued by a supplier with non-zero GST, the page title says "Tax invoice #INV-123456"rather than "Invoice #INV-123456".</t>
+    </r>
+  </si>
+  <si>
+    <t>it will shows "Email,(new implement) Add credit note, Download DO, Download invoice, Duplicate and Void"</t>
+  </si>
+  <si>
+    <r>
+      <t>It gets displayed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Email,(new implement) Add credit note, Download DO, Download invoice, Duplicate and Void</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1309,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1351,6 +1390,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1632,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1799,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>26</v>
@@ -1771,19 +1813,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>21</v>
@@ -1835,7 +1877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1846,19 +1888,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="G9" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1869,19 +1911,13 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1892,19 +1928,19 @@
         <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1914,20 +1950,20 @@
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>42</v>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1938,19 +1974,19 @@
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1961,19 +1997,19 @@
         <v>16</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="G14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1984,19 +2020,19 @@
         <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2007,19 +2043,19 @@
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2030,19 +2066,19 @@
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2053,19 +2089,19 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2076,19 +2112,19 @@
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2099,19 +2135,19 @@
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2121,20 +2157,20 @@
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>62</v>
+      <c r="D21" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2145,19 +2181,19 @@
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2168,17 +2204,19 @@
         <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2189,15 +2227,17 @@
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2208,19 +2248,15 @@
         <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2231,65 +2267,65 @@
         <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" t="s">
-        <v>71</v>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>89</v>
+      <c r="C28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2297,22 +2333,22 @@
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2320,22 +2356,22 @@
         <v>11</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2343,62 +2379,62 @@
         <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D31" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="G32" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="E33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="F33" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>21</v>
@@ -2406,101 +2442,124 @@
     </row>
     <row r="34" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="G35" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="14" t="s">
+      <c r="F36" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="G36" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="F37" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="G37" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testcases_supplier/Invoices/Manual testcases/Invoices -InvoiceListing.xlsx
+++ b/Testcases_supplier/Invoices/Manual testcases/Invoices -InvoiceListing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE76E6B4-5F9D-4334-9A35-76271DC3E3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C352CD-C86A-4A3C-B984-7A9DA80BCAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="119">
   <si>
     <t>SL. No</t>
   </si>
@@ -562,9 +562,6 @@
     </r>
   </si>
   <si>
-    <t>It does to Xero page</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on the Uncheck box </t>
   </si>
   <si>
@@ -1186,6 +1183,38 @@
   </si>
   <si>
     <t>It gets displayed the Invoices menu page</t>
+  </si>
+  <si>
+    <t>It goes to Xero page</t>
+  </si>
+  <si>
+    <t>If the invoice is an "e-invoice" (including PEPPOL invoices) AND it is issued by a supplier with non-zero GST, the page title says "Tax invoice #INV-123456" rather than "Invoice #INV-123456".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As expected the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Tax invoice #INV-123456"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> displayed</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1632,10 +1661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B40"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1786,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>26</v>
@@ -1780,7 +1809,7 @@
         <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>66</v>
@@ -1846,22 +1875,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>87</v>
-      </c>
       <c r="G9" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
+    <row r="10" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1869,21 +1895,21 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -1892,21 +1918,21 @@
         <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -1914,22 +1940,22 @@
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>42</v>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -1938,21 +1964,21 @@
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -1961,10 +1987,10 @@
         <v>16</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>47</v>
@@ -1973,9 +1999,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -1984,21 +2010,21 @@
         <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
@@ -2010,18 +2036,18 @@
         <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -2033,18 +2059,18 @@
         <v>48</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>11</v>
@@ -2053,21 +2079,21 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
@@ -2076,21 +2102,21 @@
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
@@ -2099,21 +2125,21 @@
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>11</v>
@@ -2121,22 +2147,22 @@
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>62</v>
+      <c r="D21" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
@@ -2145,21 +2171,21 @@
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -2168,19 +2194,21 @@
         <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>11</v>
@@ -2189,17 +2217,19 @@
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
@@ -2208,21 +2238,17 @@
         <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>24</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
@@ -2231,174 +2257,174 @@
         <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="G27" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="G28" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="E29" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="E30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G30" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="F31" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="G31" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="F32" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G32" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="E33" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>21</v>
@@ -2406,101 +2432,124 @@
     </row>
     <row r="34" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="13" t="s">
+      <c r="B35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G35" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="14" t="s">
+      <c r="E36" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="G36" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="E37" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="G37" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testcases_supplier/Invoices/Manual testcases/Invoices -InvoiceListing.xlsx
+++ b/Testcases_supplier/Invoices/Manual testcases/Invoices -InvoiceListing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Invoices\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC1EB44-B85B-4853-AEFC-8A762A747504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C352CD-C86A-4A3C-B984-7A9DA80BCAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="119">
   <si>
     <t>SL. No</t>
   </si>
@@ -166,6 +166,12 @@
     <t xml:space="preserve">1.Once click on the particular invoices then it shows the "Invoice id, Details, Notes banner, Description, Qty, Discount, Amount($)"                                                                                               2.Left side Details are invoice total, Invoice date, Bill to, outlet, Linked to, and sales person                                                                                             3.On the top right corner options   </t>
   </si>
   <si>
+    <t>It gets displayed  Add credit note, Download DO, Download invoice, Duplicate and Void</t>
+  </si>
+  <si>
+    <t>it will shows "Add credit note, Download DO, Download invoice, Duplicate and Void"</t>
+  </si>
+  <si>
     <r>
       <t>Click the invoice-&gt;</t>
     </r>
@@ -554,9 +560,6 @@
       </rPr>
       <t xml:space="preserve"> I will shows the Invoices page </t>
     </r>
-  </si>
-  <si>
-    <t>It does to Xero page</t>
   </si>
   <si>
     <t xml:space="preserve">Click on the Uncheck box </t>
@@ -1182,48 +1185,35 @@
     <t>It gets displayed the Invoices menu page</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">In the single invoice If the invoice is an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"e-invoice"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (including PEPPOL invoices) AND it is issued by a supplier with non-zero GST, the page title says "Tax invoice #INV-123456"rather than "Invoice #INV-123456".</t>
-    </r>
-  </si>
-  <si>
-    <t>it will shows "Email,(new implement) Add credit note, Download DO, Download invoice, Duplicate and Void"</t>
-  </si>
-  <si>
-    <r>
-      <t>It gets displayed</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Email,(new implement) Add credit note, Download DO, Download invoice, Duplicate and Void</t>
+    <t>It goes to Xero page</t>
+  </si>
+  <si>
+    <t>If the invoice is an "e-invoice" (including PEPPOL invoices) AND it is issued by a supplier with non-zero GST, the page title says "Tax invoice #INV-123456" rather than "Invoice #INV-123456".</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As expected the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Tax invoice #INV-123456"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> displayed</t>
     </r>
   </si>
 </sst>
@@ -1348,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1390,9 +1380,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1676,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1786,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>26</v>
@@ -1813,19 +1800,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>21</v>
@@ -1877,7 +1864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1888,22 +1875,19 @@
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
+    <row r="10" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -1911,15 +1895,21 @@
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>115</v>
+        <v>84</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -1928,13 +1918,13 @@
         <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>21</v>
@@ -1942,7 +1932,7 @@
     </row>
     <row r="12" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -1951,13 +1941,13 @@
         <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>21</v>
@@ -1965,7 +1955,7 @@
     </row>
     <row r="13" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -1974,13 +1964,13 @@
         <v>16</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>21</v>
@@ -1988,7 +1978,7 @@
     </row>
     <row r="14" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -1997,13 +1987,13 @@
         <v>16</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>21</v>
@@ -2011,7 +2001,7 @@
     </row>
     <row r="15" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
@@ -2020,13 +2010,13 @@
         <v>16</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>21</v>
@@ -2034,7 +2024,7 @@
     </row>
     <row r="16" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
@@ -2043,13 +2033,13 @@
         <v>16</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>21</v>
@@ -2057,7 +2047,7 @@
     </row>
     <row r="17" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -2066,13 +2056,13 @@
         <v>16</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>21</v>
@@ -2080,7 +2070,7 @@
     </row>
     <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>11</v>
@@ -2089,13 +2079,13 @@
         <v>16</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>21</v>
@@ -2103,7 +2093,7 @@
     </row>
     <row r="19" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>11</v>
@@ -2112,13 +2102,13 @@
         <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>21</v>
@@ -2126,7 +2116,7 @@
     </row>
     <row r="20" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
@@ -2135,13 +2125,13 @@
         <v>16</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>21</v>
@@ -2149,7 +2139,7 @@
     </row>
     <row r="21" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>11</v>
@@ -2158,13 +2148,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>21</v>
@@ -2172,7 +2162,7 @@
     </row>
     <row r="22" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>11</v>
@@ -2181,13 +2171,13 @@
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>21</v>
@@ -2195,7 +2185,7 @@
     </row>
     <row r="23" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -2204,13 +2194,13 @@
         <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>21</v>
@@ -2218,7 +2208,7 @@
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>11</v>
@@ -2227,19 +2217,19 @@
         <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>11</v>
@@ -2248,17 +2238,17 @@
         <v>16</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
@@ -2267,7 +2257,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>23</v>
@@ -2281,7 +2271,7 @@
     </row>
     <row r="27" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>11</v>
@@ -2293,7 +2283,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>26</v>
@@ -2304,22 +2294,22 @@
     </row>
     <row r="28" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>21</v>
@@ -2327,19 +2317,19 @@
     </row>
     <row r="29" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>26</v>
@@ -2350,22 +2340,22 @@
     </row>
     <row r="30" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>21</v>
@@ -2373,22 +2363,22 @@
     </row>
     <row r="31" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>21</v>
@@ -2402,16 +2392,16 @@
         <v>11</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>21</v>
@@ -2425,16 +2415,16 @@
         <v>11</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>21</v>
@@ -2448,16 +2438,16 @@
         <v>11</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>21</v>
@@ -2471,16 +2461,16 @@
         <v>11</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>21</v>
@@ -2494,16 +2484,16 @@
         <v>11</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>21</v>
@@ -2517,16 +2507,16 @@
         <v>11</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>21</v>
@@ -2540,16 +2530,16 @@
         <v>11</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>21</v>
